--- a/biology/Botanique/Siegfriedia/Siegfriedia.xlsx
+++ b/biology/Botanique/Siegfriedia/Siegfriedia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Siegfriedia darwinioides
 Siegfriedia est un genre monotypique de plante à fleurs appartenant à la famille des Rhamnacées. C'est une petite plante aux feuilles lisses et aux fleurs en forme de cloche. La seule espèce est Siegfriedia darwinioides, elle est endémique d'Australie occidentale.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Siegfriedia darwinioides est un arbuste dressé et étalé à plusieurs tiges, de 0,2 à 1 m de haut, avec des fleurs pendantes crème jaunâtre à orange. Les branches sont lisses, l'écorce est brun pourpre, les branches plus petites ont un duvet blanchâtre. Les feuilles sont disposées opposées, de forme oblongue, à sommet pointu, à base presque cordiforme, à bords enroulés, face supérieure veinée et lisse, face inférieure densément couverte de poils courts et emmêlés. La floraison a lieu d'avril à août et le fruit est un schizocarpe à trois segments[2],[3],[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Siegfriedia darwinioides est un arbuste dressé et étalé à plusieurs tiges, de 0,2 à 1 m de haut, avec des fleurs pendantes crème jaunâtre à orange. Les branches sont lisses, l'écorce est brun pourpre, les branches plus petites ont un duvet blanchâtre. Les feuilles sont disposées opposées, de forme oblongue, à sommet pointu, à base presque cordiforme, à bords enroulés, face supérieure veinée et lisse, face inférieure densément couverte de poils courts et emmêlés. La floraison a lieu d'avril à août et le fruit est un schizocarpe à trois segments.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Taxonomie et dénomination</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Siegfriedia darwinioides a été formellement décrite pour la première fois en 1933 par Charles Gardner et la description a été publiée dans le Journal of the Royal Society of Western Australia[2],[5]. L'épithète spécifique (darwinioides) signifie comme Darwinia[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Siegfriedia darwinioides a été formellement décrite pour la première fois en 1933 par Charles Gardner et la description a été publiée dans le Journal of the Royal Society of Western Australia,. L'épithète spécifique (darwinioides) signifie comme Darwinia.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Siegfriedia darwinioides pousse de la chaîne de Stirling à Espérance sur des sols sableux, argileux ou limoneux[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Siegfriedia darwinioides pousse de la chaîne de Stirling à Espérance sur des sols sableux, argileux ou limoneux.
 </t>
         </is>
       </c>
